--- a/medicine/Sexualité et sexologie/Masters_of_Sex/Masters_of_Sex.xlsx
+++ b/medicine/Sexualité et sexologie/Masters_of_Sex/Masters_of_Sex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Masters of Sex est une série télévisée américaine en 46 épisodes d'environ 55 minutes créée par Michelle Ashford d'après le roman éponyme (en) de Thomas Maier (en), diffusée entre le 29 septembre 2013[1] et le 13 novembre 2016 sur la chaîne Showtime aux États-Unis et sur The Movie Network[2] au Canada.
-En France, la série est diffusée depuis le 11 octobre 2013 sur OCS City en version originale sous-titrée, en Suisse depuis le 10 novembre 2014 sur RTS Un et au Québec à partir du 18 mars 2015 à Super Écran[3]. À l'été 2020, en Belgique, elle est disponible en intégralité sur RTLplay, la plateforme replay de RTL TVI[4]. Elle reste inédite dans les autres pays francophones.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Masters of Sex est une série télévisée américaine en 46 épisodes d'environ 55 minutes créée par Michelle Ashford d'après le roman éponyme (en) de Thomas Maier (en), diffusée entre le 29 septembre 2013 et le 13 novembre 2016 sur la chaîne Showtime aux États-Unis et sur The Movie Network au Canada.
+En France, la série est diffusée depuis le 11 octobre 2013 sur OCS City en version originale sous-titrée, en Suisse depuis le 10 novembre 2014 sur RTS Un et au Québec à partir du 18 mars 2015 à Super Écran. À l'été 2020, en Belgique, elle est disponible en intégralité sur RTLplay, la plateforme replay de RTL TVI. Elle reste inédite dans les autres pays francophones.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La série présente le quotidien professionnel et affectif de deux chercheurs spécialisés dans l'étude des comportements sexuels : William Masters et Virginia Johnson.
 </t>
@@ -545,12 +559,17 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Acteurs principaux
-Michael Sheen (VFB : Franck Dacquin) : Dr William Masters
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Sheen (VFB : Franck Dacquin) : Dr William Masters
 Lizzy Caplan (VFB : Mélanie Dermont) : Virginia Johnson
 Caitlin Fitzgerald (VFB : Claire Tefnin) : Libby Masters
 Teddy Sears (VFB : David Manet) : Dr Austin Langham (saisons 1 et 2, récurrent saisons 3 et 4)
-Annaleigh Ashford (VFB : Fanny Roy) : Betty DiMello (récurrente saison 1, régulière saisons 2 à 4) [5])
+Annaleigh Ashford (VFB : Fanny Roy) : Betty DiMello (récurrente saison 1, régulière saisons 2 à 4) )
 Nicholas D'Agosto (VFB : Maxime Donnay) : Dr Ethan Haas (saison 1, invité saison 2)
 			Michael Sheen interprète le Dr William H. Masters
 			Lizzy Caplan interprète Virginia E. Johnson
@@ -558,8 +577,43 @@
 			Teddy Sears interprète le Dr Austin Langham
 			Annaleigh Ashford interprète Betty DiMello
 			Nicholas D’Agosto interprète le Dr Ethan Haas
-Acteurs récurrents
-Introduits dans la saison 1
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Introduits dans la saison 1
 Beau Bridges (VFB : Patrick Descamps) : Barton Scully
 Allison Janney (VFB : Manuela Servais) : Margaret Scully, femme de Barton (saisons 1 à 3)
 Rose McIver : Vivian Scully, fille de Barton (saisons 1 et 2)
@@ -603,51 +657,10 @@
 Niecy Nash (VFB : Bernadette Mouzon) : Louise Bell
 David Wilton (VFB : Sébastien Hébrant) : Bram Keller
 Version française
-Société de doublage : Dubbing Brothers[6]
-Direction artistique : Géraldine Frippiat[6]
-Adaptation des dialogues : Margaux Lamy, Mélanie de Truchis de Lays &amp; Olivier Delebarre[6]
-Source VF : Doublage Série Database[6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Masters_of_Sex</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Masters_of_Sex</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Développement</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Production
-Le pilote a été commandé en août 2011[7], et la série a été commandée le 11 juin 2012[8].
-Le 30 novembre 2016, la série est annulée[9].
-Casting
-En novembre 2011, Paul Bettany a été envisagé pour le rôle principal de William Masters[10], mais a quitté le projet en janvier 2012[11].
-Les rôles principaux ont été attribués dans cet ordre : Teddy Sears et Nicholas D'Agosto[12], Michael Sheen et Lizzy Caplan[13], Caitlin Fitzgerald[14].
-Parmi les acteurs récurrents et invités de la première saison : Beau Bridges et Margo Martindale[15], Wendi McLendon-Covey (Lillian DePaul)[16], Ann Dowd[17], Rose McIver[18] et Allison Janney[19].
-En décembre 2013, Annaleigh Ashford a été promue à la distribution principale pour la deuxième saison[20].
-Parmi les acteurs récurrents et invités de la deuxième saison : Keke Palmer[21], Betsy Brandt[22], Sarah Silverman[23], Jocko Sims[24], Courtney B. Vance et Rene Auberjonois[25], Christian Borle[26], Artemis Pebdani[27] et Marin Ireland[28].
-Tournage
-La série est tournée à Culver City, dans le comté de Los Angeles en Californie[29].
-Fiche technique</t>
+Société de doublage : Dubbing Brothers
+Direction artistique : Géraldine Frippiat
+Adaptation des dialogues : Margaux Lamy, Mélanie de Truchis de Lays &amp; Olivier Delebarre
+Source VF : Doublage Série Database</t>
         </is>
       </c>
     </row>
@@ -672,13 +685,134 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pilote a été commandé en août 2011, et la série a été commandée le 11 juin 2012.
+Le 30 novembre 2016, la série est annulée.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Casting</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2011, Paul Bettany a été envisagé pour le rôle principal de William Masters, mais a quitté le projet en janvier 2012.
+Les rôles principaux ont été attribués dans cet ordre : Teddy Sears et Nicholas D'Agosto, Michael Sheen et Lizzy Caplan, Caitlin Fitzgerald.
+Parmi les acteurs récurrents et invités de la première saison : Beau Bridges et Margo Martindale, Wendi McLendon-Covey (Lillian DePaul), Ann Dowd, Rose McIver et Allison Janney.
+En décembre 2013, Annaleigh Ashford a été promue à la distribution principale pour la deuxième saison.
+Parmi les acteurs récurrents et invités de la deuxième saison : Keke Palmer, Betsy Brandt, Sarah Silverman, Jocko Sims, Courtney B. Vance et Rene Auberjonois, Christian Borle, Artemis Pebdani et Marin Ireland.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Développement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série est tournée à Culver City, dans le comté de Los Angeles en Californie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Première saison (2013)
-Un nouveau monde (Pilot)
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Première saison (2013)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Un nouveau monde (Pilot)
 Course à l'espace (Race to Space)
 Déviance standard (Standard Deviation)
 Mieux vaut tard que jamais (Thank You For Coming)
@@ -689,10 +823,44 @@
 Réflexes (Involuntary)
 Explosions (Fallout)
 Question de taille (Phallic Victories)
-De Nouveaux horizons (Manhigh)
-Deuxième saison (2014)
-Le 22 octobre 2013, la série a été renouvelée pour une deuxième saison de douze épisodes[30] diffusée à partir du 13 juillet 2014[31].
-La promotion pour la deuxième saison a rencontré un franc succès avec la vidéo Undress Me réalisée par la vidéaste Tatia Pilieva[32].
+De Nouveaux horizons (Manhigh)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2014)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Le 22 octobre 2013, la série a été renouvelée pour une deuxième saison de douze épisodes diffusée à partir du 13 juillet 2014.
+La promotion pour la deuxième saison a rencontré un franc succès avec la vidéo Undress Me réalisée par la vidéaste Tatia Pilieva.
 Parallaxe (Parallax)
 Des choix' cornéliens (Kyrie Eleison)
 Le Combat (Fight)
@@ -704,9 +872,43 @@
 La Vie de l'autre (Story of My Life)
 Sous la ceinture (Below the Belt)
 La fin justifie-t-elle les moyens ? (One for the Money, Two for the Show)
-La Révolution ne sera pas retransmise (The Revolution Will Not Be Televised)
-Troisième saison (2015)
-Le 20 août 2014, la série a été renouvelée pour une troisième saison[33], diffusée depuis le 12 juillet 2015[34].
+La Révolution ne sera pas retransmise (The Revolution Will Not Be Televised)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Troisième saison (2015)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Le 20 août 2014, la série a été renouvelée pour une troisième saison, diffusée depuis le 12 juillet 2015.
 La sexualité dévoilée (Parliament of Owls)
 Ménage à trois (Three's a Crowd)
 Réactions en chaîne (The Excitement of Release)
@@ -718,9 +920,43 @@
 À cran (High Anxiety)
 De l'autre côté du miroir (Through a Glass, Darkly)
 Un jeu dangereux (Party of Four)
-La Chute (Full Ten Count)
-Quatrième saison (2016)
-Le 11 août 2015, la série a été renouvelée pour une quatrième saison[35] de dix épisodes diffusée depuis le 11 septembre 2016[36].
+La Chute (Full Ten Count)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Quatrième saison (2016)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Le 11 août 2015, la série a été renouvelée pour une quatrième saison de dix épisodes diffusée depuis le 11 septembre 2016.
 Chute libre (Freefall)
 L'inventaire (Inventory)
 Un nouveau protocole (The Pleasure Protocol)
@@ -734,69 +970,76 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Masters_of_Sex</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Masters_of_Sex</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Audiences
-Aux États-Unis
-Distinctions
-Récompenses
-American Film Institute Awards 2013 : top 10 des meilleures séries télévisées de l'année
-Nominations</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Masters_of_Sex</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Masters_of_Sex</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>American Film Institute Awards 2013 : top 10 des meilleures séries télévisées de l'année</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Masters_of_Sex</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En octobre 2013, Showtime dévoile le logotitre de la série télé qui s'avère être le plagiat d'un logo appartenant à un graphiste français[73].
-« Si les personnages de la série peuvent être analysés au travers de leur rapport au sexe, clé de leur identité (l’époux volage, la femme frustrée, la prostituée, la femme libérée, l’homosexuel honteux), cette série de stéréotypes est très vite nuancée par une construction psychologique très fine[74]. »
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En octobre 2013, Showtime dévoile le logotitre de la série télé qui s'avère être le plagiat d'un logo appartenant à un graphiste français.
+« Si les personnages de la série peuvent être analysés au travers de leur rapport au sexe, clé de leur identité (l’époux volage, la femme frustrée, la prostituée, la femme libérée, l’homosexuel honteux), cette série de stéréotypes est très vite nuancée par une construction psychologique très fine. »
 </t>
         </is>
       </c>
